--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2660.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2660.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8981186092408147</v>
+        <v>1.715798258781433</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.827842831611633</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.768250942230225</v>
       </c>
       <c r="D1">
-        <v>1.236348943619749</v>
+        <v>2.114036083221436</v>
       </c>
       <c r="E1">
-        <v>0.8308886000045476</v>
+        <v>2.977443695068359</v>
       </c>
     </row>
   </sheetData>
